--- a/Compass.Wpf/bin/Release/net6.0-windows/PalletLabel.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/PalletLabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACD0F3D-DDA6-4000-9103-DA0D97DE70FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B16045A-90B0-4481-A545-14A75394316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,27 +144,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +533,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,38 +543,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="207" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="207" x14ac:dyDescent="1.1499999999999999">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
